--- a/scripts/043/tableau_cas_de_tests.xlsx
+++ b/scripts/043/tableau_cas_de_tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="11325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="592">
   <si>
     <t>zone</t>
   </si>
@@ -1777,6 +1777,21 @@
   </si>
   <si>
     <t>La notice a déjà une 043    $o ba</t>
+  </si>
+  <si>
+    <t>Specs pas claires : on a actuellement une 043 $o ic $b de, que les specs demandent de remplacer par une 043 $o ic --&gt; la 043 $b de a disparu. Faut-il la garder ? Ou seulement le temps des traitements ?</t>
+  </si>
+  <si>
+    <t>Specs pas claires : on a actuellement une 043 $o ic $b es, que les specs demandent de remplacer par une 043 $o ic --&gt; la 043 $b es a disparu. Faut-il la garder ? Ou seulement le temps des traitements ?</t>
+  </si>
+  <si>
+    <t>Specs pas claires : on a actuellement une 043 $o ic $b ph, que les specs demandent de remplacer par une 043 $o ic --&gt; la 043 $b ph a disparu. Faut-il la garder ? Ou seulement le temps des traitements ?</t>
+  </si>
+  <si>
+    <t>Il y a une 043 $o te au lieu de 043 $o mi --&gt; les règles d'injection de la 065 ne sont pas appliquées</t>
+  </si>
+  <si>
+    <t>Il y a une 043 $o ic au lieu de 043 $o mi --&gt; les règles d'injection de la 065 ne sont pas appliquées</t>
   </si>
 </sst>
 </file>
@@ -2140,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection sqref="A1:F156"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4352,55 +4367,55 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -4412,211 +4427,176 @@
         <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>6</v>
+        <v>432</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>405</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>6</v>
+        <v>432</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>408</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>6</v>
+        <v>432</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>411</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>6</v>
+        <v>432</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>414</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>6</v>
+        <v>432</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>417</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>6</v>
+        <v>432</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>420</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>6</v>
+        <v>432</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>423</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>6</v>
+        <v>432</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>426</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>6</v>
+        <v>432</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>429</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>6</v>
+        <v>432</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>399</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="F137" s="2"/>
     </row>
@@ -4628,11 +4608,11 @@
         <v>432</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="F138" s="2"/>
     </row>
@@ -4644,11 +4624,11 @@
         <v>432</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -4660,11 +4640,11 @@
         <v>432</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="F140" s="2"/>
     </row>
@@ -4676,11 +4656,11 @@
         <v>432</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -4696,7 +4676,7 @@
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -4712,7 +4692,7 @@
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="F143" s="2"/>
     </row>
@@ -4724,11 +4704,11 @@
         <v>432</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -4740,11 +4720,11 @@
         <v>432</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -4756,185 +4736,46 @@
         <v>432</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>447</v>
+        <v>231</v>
       </c>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F157" s="2"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F158" s="2"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F160" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4944,10 +4785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45:F57"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6086,6 +5927,226 @@
       </c>
       <c r="F57" s="5" t="s">
         <v>585</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/043/tableau_cas_de_tests.xlsx
+++ b/scripts/043/tableau_cas_de_tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="11325" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -2157,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:E127"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection sqref="A1:F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,6 +4438,19 @@
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4448,11 +4461,11 @@
         <v>432</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F128" s="2"/>
     </row>
@@ -4464,11 +4477,11 @@
         <v>432</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F129" s="2"/>
     </row>
@@ -4480,11 +4493,11 @@
         <v>432</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -4496,11 +4509,11 @@
         <v>432</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>439</v>
+        <v>328</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -4512,11 +4525,11 @@
         <v>432</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>328</v>
+        <v>442</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F132" s="2"/>
     </row>
@@ -4528,11 +4541,11 @@
         <v>432</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F133" s="2"/>
     </row>
@@ -4544,11 +4557,11 @@
         <v>432</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -4564,7 +4577,7 @@
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F135" s="2"/>
     </row>
@@ -4576,11 +4589,11 @@
         <v>432</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F136" s="2"/>
     </row>
@@ -4592,11 +4605,11 @@
         <v>432</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F137" s="2"/>
     </row>
@@ -4608,11 +4621,11 @@
         <v>432</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F138" s="2"/>
     </row>
@@ -4624,11 +4637,11 @@
         <v>432</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -4640,11 +4653,11 @@
         <v>432</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F140" s="2"/>
     </row>
@@ -4656,11 +4669,11 @@
         <v>432</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>437</v>
+        <v>328</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -4672,11 +4685,11 @@
         <v>432</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>328</v>
+        <v>442</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -4688,11 +4701,11 @@
         <v>432</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F143" s="2"/>
     </row>
@@ -4704,11 +4717,11 @@
         <v>432</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -4720,28 +4733,15 @@
         <v>432</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>458</v>
+        <v>231</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4787,7 +4787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>

--- a/scripts/043/tableau_cas_de_tests.xlsx
+++ b/scripts/043/tableau_cas_de_tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="28515" windowHeight="11325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1467,9 +1467,6 @@
     <t>ark:/12148/cb16135383b</t>
   </si>
   <si>
-    <t>La condition prévoit : « si la 600$a contient Commentaire apostolique » – or la 600$a condition Constitution apostolique (erreur de rédaction de la condition ?</t>
-  </si>
-  <si>
     <t>chron</t>
   </si>
   <si>
@@ -1761,9 +1758,6 @@
     <t>043</t>
   </si>
   <si>
-    <t>A déjà une 061$a fi → ne passe pas dans le programme (faut-il revoir les specs?)</t>
-  </si>
-  <si>
     <t>La notice contient déjà une 061    $a st $g stsf en contradiction avec le cas de test</t>
   </si>
   <si>
@@ -1792,6 +1786,12 @@
   </si>
   <si>
     <t>Il y a une 043 $o ic au lieu de 043 $o mi --&gt; les règles d'injection de la 065 ne sont pas appliquées</t>
+  </si>
+  <si>
+    <t>--&gt; revoir les specs = dans les 3 premiers mots</t>
+  </si>
+  <si>
+    <t>--&gt; revoir les specs pour inclure les 141 avec les 145 (et les 441 avec les 445)</t>
   </si>
 </sst>
 </file>
@@ -1847,13 +1847,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2155,13 +2170,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection sqref="A1:F145"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="105.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2185,7 +2203,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -2205,7 +2223,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -2223,7 +2241,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2241,7 +2259,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -2259,7 +2277,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -2277,7 +2295,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -2295,7 +2313,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2313,7 +2331,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -2331,7 +2349,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -2349,7 +2367,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -2367,7 +2385,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -2387,7 +2405,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -2405,7 +2423,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -2423,7 +2441,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -2441,7 +2459,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -2459,7 +2477,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>41</v>
@@ -2477,7 +2495,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
@@ -2495,7 +2513,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -2513,7 +2531,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -2531,7 +2549,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>41</v>
@@ -2549,7 +2567,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
@@ -2567,7 +2585,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -2585,7 +2603,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>41</v>
@@ -2603,7 +2621,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>41</v>
@@ -2621,7 +2639,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>41</v>
@@ -2639,7 +2657,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>41</v>
@@ -2657,7 +2675,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>41</v>
@@ -2675,7 +2693,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>41</v>
@@ -2693,7 +2711,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>41</v>
@@ -2711,7 +2729,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>41</v>
@@ -2729,7 +2747,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>41</v>
@@ -2747,7 +2765,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>41</v>
@@ -2765,7 +2783,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>41</v>
@@ -2783,7 +2801,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>41</v>
@@ -2801,7 +2819,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>41</v>
@@ -2819,7 +2837,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>41</v>
@@ -2837,7 +2855,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>41</v>
@@ -2855,7 +2873,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>41</v>
@@ -2873,7 +2891,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
@@ -2891,7 +2909,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
@@ -2909,7 +2927,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
@@ -2927,7 +2945,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
@@ -2945,7 +2963,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
@@ -2963,7 +2981,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
@@ -2981,7 +2999,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
@@ -2999,7 +3017,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>41</v>
@@ -3017,7 +3035,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
@@ -3035,7 +3053,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>136</v>
@@ -3053,7 +3071,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>136</v>
@@ -3071,7 +3089,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>136</v>
@@ -3089,7 +3107,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>136</v>
@@ -3107,7 +3125,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>136</v>
@@ -3125,7 +3143,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>136</v>
@@ -3143,7 +3161,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>136</v>
@@ -3161,7 +3179,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>152</v>
@@ -3179,7 +3197,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>152</v>
@@ -3197,7 +3215,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>152</v>
@@ -3215,7 +3233,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>152</v>
@@ -3233,7 +3251,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>152</v>
@@ -3251,7 +3269,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>152</v>
@@ -3269,7 +3287,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>152</v>
@@ -3287,7 +3305,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>152</v>
@@ -3305,7 +3323,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>152</v>
@@ -3323,7 +3341,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>152</v>
@@ -3341,7 +3359,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>152</v>
@@ -3359,7 +3377,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>152</v>
@@ -3377,7 +3395,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
@@ -3395,7 +3413,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>6</v>
@@ -3413,7 +3431,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>6</v>
@@ -3431,7 +3449,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>6</v>
@@ -3449,7 +3467,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>11</v>
@@ -3467,7 +3485,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>11</v>
@@ -3485,7 +3503,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>11</v>
@@ -3503,7 +3521,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>11</v>
@@ -3521,7 +3539,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>11</v>
@@ -3539,7 +3557,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>152</v>
@@ -3557,7 +3575,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>152</v>
@@ -3575,7 +3593,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>6</v>
@@ -3593,7 +3611,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>6</v>
@@ -3611,7 +3629,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>6</v>
@@ -3629,7 +3647,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>6</v>
@@ -3647,7 +3665,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>6</v>
@@ -3665,7 +3683,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>6</v>
@@ -3683,7 +3701,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>6</v>
@@ -3701,7 +3719,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>11</v>
@@ -3719,7 +3737,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>41</v>
@@ -3737,7 +3755,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>41</v>
@@ -3755,7 +3773,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>41</v>
@@ -3773,7 +3791,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>41</v>
@@ -3791,7 +3809,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>41</v>
@@ -3809,7 +3827,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>41</v>
@@ -3827,7 +3845,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>41</v>
@@ -3845,7 +3863,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>41</v>
@@ -3863,7 +3881,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>41</v>
@@ -3881,7 +3899,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>41</v>
@@ -3899,7 +3917,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>41</v>
@@ -3917,7 +3935,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>41</v>
@@ -3935,7 +3953,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>41</v>
@@ -3953,7 +3971,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>41</v>
@@ -3971,7 +3989,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>41</v>
@@ -3989,7 +4007,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>41</v>
@@ -4007,7 +4025,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>136</v>
@@ -4025,7 +4043,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>152</v>
@@ -4043,7 +4061,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>292</v>
@@ -4061,7 +4079,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>292</v>
@@ -4079,7 +4097,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>292</v>
@@ -4097,7 +4115,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>292</v>
@@ -4115,7 +4133,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>308</v>
@@ -4133,7 +4151,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>308</v>
@@ -4151,7 +4169,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>308</v>
@@ -4169,7 +4187,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>318</v>
@@ -4187,7 +4205,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>6</v>
@@ -4205,7 +4223,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>6</v>
@@ -4223,7 +4241,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>6</v>
@@ -4241,7 +4259,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>6</v>
@@ -4259,7 +4277,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>6</v>
@@ -4277,7 +4295,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>6</v>
@@ -4295,7 +4313,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>6</v>
@@ -4313,7 +4331,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>6</v>
@@ -4331,7 +4349,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>6</v>
@@ -4349,7 +4367,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>6</v>
@@ -4367,7 +4385,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>6</v>
@@ -4385,7 +4403,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>6</v>
@@ -4403,7 +4421,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>6</v>
@@ -4421,7 +4439,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>6</v>
@@ -4439,7 +4457,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>432</v>
@@ -4455,7 +4473,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>432</v>
@@ -4471,7 +4489,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>432</v>
@@ -4487,7 +4505,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>432</v>
@@ -4503,7 +4521,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>432</v>
@@ -4519,7 +4537,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>432</v>
@@ -4535,7 +4553,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>432</v>
@@ -4551,7 +4569,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>432</v>
@@ -4567,7 +4585,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>432</v>
@@ -4583,7 +4601,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>432</v>
@@ -4599,7 +4617,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>432</v>
@@ -4615,7 +4633,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>432</v>
@@ -4631,7 +4649,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>432</v>
@@ -4647,7 +4665,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>432</v>
@@ -4663,7 +4681,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>432</v>
@@ -4679,7 +4697,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>432</v>
@@ -4695,7 +4713,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>432</v>
@@ -4711,7 +4729,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>432</v>
@@ -4727,7 +4745,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>432</v>
@@ -4742,40 +4760,499 @@
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F148" s="2"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F151" s="2"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F154" s="2"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F157" s="2"/>
+      <c r="A146" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4785,15 +5262,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="112.85546875" style="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4809,13 +5291,13 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>462</v>
@@ -4829,13 +5311,16 @@
       <c r="E2" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -4849,13 +5334,16 @@
       <c r="E3" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -4869,13 +5357,13 @@
       <c r="E4" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
@@ -4889,13 +5377,13 @@
       <c r="E5" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>136</v>
@@ -4909,13 +5397,13 @@
       <c r="E6" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>136</v>
@@ -4929,1224 +5417,724 @@
       <c r="E7" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>544</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>484</v>
+        <v>219</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>485</v>
+        <v>220</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>492</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>493</v>
+        <v>226</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>496</v>
+        <v>225</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>497</v>
+        <v>226</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>500</v>
+        <v>228</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>501</v>
+        <v>229</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>511</v>
+        <v>322</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>512</v>
+        <v>323</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>510</v>
+        <v>324</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>432</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>515</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>517</v>
+        <v>325</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>518</v>
+        <v>326</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>510</v>
+        <v>327</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>292</v>
+        <v>432</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>521</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>520</v>
+        <v>332</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>521</v>
+        <v>333</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>520</v>
+        <v>335</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>521</v>
+        <v>336</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>525</v>
+        <v>338</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>526</v>
+        <v>339</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>528</v>
+        <v>341</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>529</v>
+        <v>342</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>531</v>
+        <v>344</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>532</v>
+        <v>345</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>534</v>
+        <v>347</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>535</v>
+        <v>348</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>537</v>
+        <v>350</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>538</v>
+        <v>351</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>520</v>
+        <v>353</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>521</v>
+        <v>354</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>520</v>
+        <v>356</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>521</v>
+        <v>357</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>542</v>
+        <v>359</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>543</v>
+        <v>360</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>545</v>
+        <v>362</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>546</v>
+        <v>363</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>365</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>220</v>
+        <v>366</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>551</v>
+        <v>368</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>552</v>
+        <v>369</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>225</v>
+        <v>389</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>226</v>
+        <v>390</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>225</v>
+        <v>392</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>226</v>
+        <v>393</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>228</v>
+        <v>395</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>229</v>
+        <v>396</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>559</v>
+        <v>397</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>560</v>
+        <v>404</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>561</v>
+        <v>405</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>563</v>
+        <v>406</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>564</v>
+        <v>410</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>565</v>
+        <v>411</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>567</v>
+        <v>412</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>568</v>
+        <v>413</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>569</v>
+        <v>414</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>581</v>
+        <v>415</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>571</v>
+        <v>416</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>572</v>
+        <v>417</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>573</v>
+        <v>418</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>582</v>
+        <v>424</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>318</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>323</v>
+        <v>426</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>583</v>
+        <v>427</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>432</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>428</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>584</v>
+        <v>430</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>325</v>
+        <v>398</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>326</v>
+        <v>399</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F59" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>588</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>590</v>
       </c>
     </row>
   </sheetData>
